--- a/Diplomarbeit/Ausarbeitung Word/Stundenliste.xlsx
+++ b/Diplomarbeit/Ausarbeitung Word/Stundenliste.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_AD4DB114E44117BA4C33AC92C990E0CE693EDF28" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{C88B3B06-A6E4-4874-AD9E-D170C92EBD5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D9406-5C9F-44F0-BAFE-49B1658BB97B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -83,6 +88,21 @@
   </si>
   <si>
     <t>LaTex einarbeiten</t>
+  </si>
+  <si>
+    <t>Logo Design - Namensfindung</t>
+  </si>
+  <si>
+    <t>Logo Design - Namensfestlegung und Entwürfe</t>
+  </si>
+  <si>
+    <t>Logo Design - Fertigstellung (2 Entwürfe)</t>
+  </si>
+  <si>
+    <t>Entwurf Interface Display</t>
+  </si>
+  <si>
+    <t>Interface Programmieren (ohne Display)</t>
   </si>
 </sst>
 </file>
@@ -504,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -711,6 +731,146 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D12" s="3">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D13" s="3">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="3">
+        <v>90</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15" s="3">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D16" s="3">
+        <v>180</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D17" s="3">
+        <v>120</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H6:H7"/>
